--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/HORA_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/HORA_prediccion..xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993BDFE4-095D-4200-A598-4873FF666B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F30AA5-6FE3-4DF6-B9EF-3228187797EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -162,7 +162,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:rPr lang="en-US" sz="1000" b="1"/>
               <a:t>HORA_INFRACCION PREDICCIÓN</a:t>
             </a:r>
           </a:p>
@@ -172,8 +172,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.0089176034581328E-2"/>
-          <c:y val="2.2922692965469196E-2"/>
+          <c:x val="0.23563786225807926"/>
+          <c:y val="3.0446001894452127E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -188,7 +188,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -212,10 +212,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14384264841724187"/>
-          <c:y val="0.15087731451486455"/>
-          <c:w val="0.85615735158275807"/>
-          <c:h val="0.72272117334418617"/>
+          <c:x val="0.15143851840829348"/>
+          <c:y val="0.15463894929585975"/>
+          <c:w val="0.82838491994328978"/>
+          <c:h val="0.67221157177335056"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -718,13 +718,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>CLASES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
@@ -783,6 +838,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t> CONTEO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-EC" baseline="0"/>
+                  <a:t> DE REGISTROS</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1404,15 +1519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>536574</xdr:colOff>
+      <xdr:colOff>283723</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>27021</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175638</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1729,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/HORA_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/HORA_prediccion..xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F30AA5-6FE3-4DF6-B9EF-3228187797EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723F0802-1EC4-4512-9587-293DB435ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -684,7 +697,7 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>300</c:v>
@@ -1845,12 +1858,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1891,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C4" s="2">
         <v>0.186</v>
